--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Podxl2-Sell.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Podxl2-Sell.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.329556</v>
+        <v>1.427849</v>
       </c>
       <c r="H2">
-        <v>0.9886679999999999</v>
+        <v>4.283547</v>
       </c>
       <c r="I2">
-        <v>0.06610958163256299</v>
+        <v>0.1372193253303967</v>
       </c>
       <c r="J2">
-        <v>0.06610958163256297</v>
+        <v>0.1372193253303967</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.07265100000000001</v>
+        <v>0.1797713333333334</v>
       </c>
       <c r="N2">
-        <v>0.217953</v>
+        <v>0.5393140000000001</v>
       </c>
       <c r="O2">
-        <v>0.1003073841694622</v>
+        <v>0.188800001120238</v>
       </c>
       <c r="P2">
-        <v>0.1003073841694622</v>
+        <v>0.188800001120238</v>
       </c>
       <c r="Q2">
-        <v>0.023942572956</v>
+        <v>0.2566863185286667</v>
       </c>
       <c r="R2">
-        <v>0.215483156604</v>
+        <v>2.310176866758001</v>
       </c>
       <c r="S2">
-        <v>0.006631279202099915</v>
+        <v>0.0259070087760972</v>
       </c>
       <c r="T2">
-        <v>0.006631279202099914</v>
+        <v>0.0259070087760972</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.329556</v>
+        <v>1.427849</v>
       </c>
       <c r="H3">
-        <v>0.9886679999999999</v>
+        <v>4.283547</v>
       </c>
       <c r="I3">
-        <v>0.06610958163256299</v>
+        <v>0.1372193253303967</v>
       </c>
       <c r="J3">
-        <v>0.06610958163256297</v>
+        <v>0.1372193253303967</v>
       </c>
       <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
         <v>1</v>
       </c>
-      <c r="L3">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M3">
-        <v>0.036125</v>
+        <v>0.7724073333333333</v>
       </c>
       <c r="N3">
-        <v>0.108375</v>
+        <v>2.317222</v>
       </c>
       <c r="O3">
-        <v>0.04987686684452822</v>
+        <v>0.811199998879762</v>
       </c>
       <c r="P3">
-        <v>0.04987686684452822</v>
+        <v>0.811199998879762</v>
       </c>
       <c r="Q3">
-        <v>0.0119052105</v>
+        <v>1.102881038492667</v>
       </c>
       <c r="R3">
-        <v>0.1071468945</v>
+        <v>9.925929346434001</v>
       </c>
       <c r="S3">
-        <v>0.003297338800234813</v>
+        <v>0.1113123165542995</v>
       </c>
       <c r="T3">
-        <v>0.003297338800234812</v>
+        <v>0.1113123165542995</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.329556</v>
+        <v>3.757808</v>
       </c>
       <c r="H4">
-        <v>0.9886679999999999</v>
+        <v>11.273424</v>
       </c>
       <c r="I4">
-        <v>0.06610958163256299</v>
+        <v>0.361133340066889</v>
       </c>
       <c r="J4">
-        <v>0.06610958163256297</v>
+        <v>0.361133340066889</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.6155076666666667</v>
+        <v>0.1797713333333334</v>
       </c>
       <c r="N4">
-        <v>1.846523</v>
+        <v>0.5393140000000001</v>
       </c>
       <c r="O4">
-        <v>0.8498157489860096</v>
+        <v>0.188800001120238</v>
       </c>
       <c r="P4">
-        <v>0.8498157489860095</v>
+        <v>0.188800001120238</v>
       </c>
       <c r="Q4">
-        <v>0.202844244596</v>
+        <v>0.6755461545706668</v>
       </c>
       <c r="R4">
-        <v>1.825598201364</v>
+        <v>6.079915391136001</v>
       </c>
       <c r="S4">
-        <v>0.05618096363022827</v>
+        <v>0.06818197500918392</v>
       </c>
       <c r="T4">
-        <v>0.05618096363022825</v>
+        <v>0.06818197500918392</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,45 +729,45 @@
         <v>11.273424</v>
       </c>
       <c r="I5">
-        <v>0.7538236740811829</v>
+        <v>0.361133340066889</v>
       </c>
       <c r="J5">
-        <v>0.7538236740811828</v>
+        <v>0.361133340066889</v>
       </c>
       <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.07265100000000001</v>
+        <v>0.7724073333333333</v>
       </c>
       <c r="N5">
-        <v>0.217953</v>
+        <v>2.317222</v>
       </c>
       <c r="O5">
-        <v>0.1003073841694622</v>
+        <v>0.811199998879762</v>
       </c>
       <c r="P5">
-        <v>0.1003073841694622</v>
+        <v>0.811199998879762</v>
       </c>
       <c r="Q5">
-        <v>0.2730085090080001</v>
+        <v>2.902558456458667</v>
       </c>
       <c r="R5">
-        <v>2.457076581072</v>
+        <v>26.123026108128</v>
       </c>
       <c r="S5">
-        <v>0.07561408087209666</v>
+        <v>0.2929513650577051</v>
       </c>
       <c r="T5">
-        <v>0.07561408087209663</v>
+        <v>0.2929513650577051</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,51 +785,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.757808</v>
+        <v>5.167149333333334</v>
       </c>
       <c r="H6">
-        <v>11.273424</v>
+        <v>15.501448</v>
       </c>
       <c r="I6">
-        <v>0.7538236740811829</v>
+        <v>0.4965740392726466</v>
       </c>
       <c r="J6">
-        <v>0.7538236740811828</v>
+        <v>0.4965740392726465</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.036125</v>
+        <v>0.1797713333333334</v>
       </c>
       <c r="N6">
-        <v>0.108375</v>
+        <v>0.5393140000000001</v>
       </c>
       <c r="O6">
-        <v>0.04987686684452822</v>
+        <v>0.188800001120238</v>
       </c>
       <c r="P6">
-        <v>0.04987686684452822</v>
+        <v>0.188800001120238</v>
       </c>
       <c r="Q6">
-        <v>0.135750814</v>
+        <v>0.928905325185778</v>
       </c>
       <c r="R6">
-        <v>1.221757326</v>
+        <v>8.360147926672001</v>
       </c>
       <c r="S6">
-        <v>0.0375983630164002</v>
+        <v>0.09375317917095677</v>
       </c>
       <c r="T6">
-        <v>0.0375983630164002</v>
+        <v>0.09375317917095675</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.757808</v>
+        <v>5.167149333333334</v>
       </c>
       <c r="H7">
-        <v>11.273424</v>
+        <v>15.501448</v>
       </c>
       <c r="I7">
-        <v>0.7538236740811829</v>
+        <v>0.4965740392726466</v>
       </c>
       <c r="J7">
-        <v>0.7538236740811828</v>
+        <v>0.4965740392726465</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6155076666666667</v>
+        <v>0.7724073333333333</v>
       </c>
       <c r="N7">
-        <v>1.846523</v>
+        <v>2.317222</v>
       </c>
       <c r="O7">
-        <v>0.8498157489860096</v>
+        <v>0.811199998879762</v>
       </c>
       <c r="P7">
-        <v>0.8498157489860095</v>
+        <v>0.811199998879762</v>
       </c>
       <c r="Q7">
-        <v>2.312959633861333</v>
+        <v>3.991144037495111</v>
       </c>
       <c r="R7">
-        <v>20.816636704752</v>
+        <v>35.920296337456</v>
       </c>
       <c r="S7">
-        <v>0.6406112301926861</v>
+        <v>0.4028208601016898</v>
       </c>
       <c r="T7">
-        <v>0.6406112301926858</v>
+        <v>0.4028208601016898</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -909,51 +909,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.8599016666666667</v>
+        <v>0.05279066666666667</v>
       </c>
       <c r="H8">
-        <v>2.579705</v>
+        <v>0.158372</v>
       </c>
       <c r="I8">
-        <v>0.1724979652273877</v>
+        <v>0.00507329533006772</v>
       </c>
       <c r="J8">
-        <v>0.1724979652273877</v>
+        <v>0.005073295330067719</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.07265100000000001</v>
+        <v>0.1797713333333334</v>
       </c>
       <c r="N8">
-        <v>0.217953</v>
+        <v>0.5393140000000001</v>
       </c>
       <c r="O8">
-        <v>0.1003073841694622</v>
+        <v>0.188800001120238</v>
       </c>
       <c r="P8">
-        <v>0.1003073841694622</v>
+        <v>0.188800001120238</v>
       </c>
       <c r="Q8">
-        <v>0.06247271598500001</v>
+        <v>0.009490248534222225</v>
       </c>
       <c r="R8">
-        <v>0.562254443865</v>
+        <v>0.08541223680800002</v>
       </c>
       <c r="S8">
-        <v>0.0173028196665141</v>
+        <v>0.0009578381640000835</v>
       </c>
       <c r="T8">
-        <v>0.0173028196665141</v>
+        <v>0.0009578381640000833</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -971,294 +971,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.8599016666666667</v>
+        <v>0.05279066666666667</v>
       </c>
       <c r="H9">
-        <v>2.579705</v>
+        <v>0.158372</v>
       </c>
       <c r="I9">
-        <v>0.1724979652273877</v>
+        <v>0.00507329533006772</v>
       </c>
       <c r="J9">
-        <v>0.1724979652273877</v>
+        <v>0.005073295330067719</v>
       </c>
       <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
         <v>1</v>
       </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M9">
-        <v>0.036125</v>
+        <v>0.7724073333333333</v>
       </c>
       <c r="N9">
-        <v>0.108375</v>
+        <v>2.317222</v>
       </c>
       <c r="O9">
-        <v>0.04987686684452822</v>
+        <v>0.811199998879762</v>
       </c>
       <c r="P9">
-        <v>0.04987686684452822</v>
+        <v>0.811199998879762</v>
       </c>
       <c r="Q9">
-        <v>0.03106394770833333</v>
+        <v>0.04077589806488889</v>
       </c>
       <c r="R9">
-        <v>0.279575529375</v>
+        <v>0.366983082584</v>
       </c>
       <c r="S9">
-        <v>0.008603658042598475</v>
+        <v>0.004115457166067637</v>
       </c>
       <c r="T9">
-        <v>0.008603658042598475</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.8599016666666667</v>
-      </c>
-      <c r="H10">
-        <v>2.579705</v>
-      </c>
-      <c r="I10">
-        <v>0.1724979652273877</v>
-      </c>
-      <c r="J10">
-        <v>0.1724979652273877</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.6155076666666667</v>
-      </c>
-      <c r="N10">
-        <v>1.846523</v>
-      </c>
-      <c r="O10">
-        <v>0.8498157489860096</v>
-      </c>
-      <c r="P10">
-        <v>0.8498157489860095</v>
-      </c>
-      <c r="Q10">
-        <v>0.5292760684127777</v>
-      </c>
-      <c r="R10">
-        <v>4.763484615715</v>
-      </c>
-      <c r="S10">
-        <v>0.1465914875182751</v>
-      </c>
-      <c r="T10">
-        <v>0.1465914875182751</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.03773033333333334</v>
-      </c>
-      <c r="H11">
-        <v>0.113191</v>
-      </c>
-      <c r="I11">
-        <v>0.007568779058866514</v>
-      </c>
-      <c r="J11">
-        <v>0.007568779058866514</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.07265100000000001</v>
-      </c>
-      <c r="N11">
-        <v>0.217953</v>
-      </c>
-      <c r="O11">
-        <v>0.1003073841694622</v>
-      </c>
-      <c r="P11">
-        <v>0.1003073841694622</v>
-      </c>
-      <c r="Q11">
-        <v>0.002741146447000001</v>
-      </c>
-      <c r="R11">
-        <v>0.024670318023</v>
-      </c>
-      <c r="S11">
-        <v>0.0007592044287515038</v>
-      </c>
-      <c r="T11">
-        <v>0.0007592044287515036</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.03773033333333334</v>
-      </c>
-      <c r="H12">
-        <v>0.113191</v>
-      </c>
-      <c r="I12">
-        <v>0.007568779058866514</v>
-      </c>
-      <c r="J12">
-        <v>0.007568779058866514</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.036125</v>
-      </c>
-      <c r="N12">
-        <v>0.108375</v>
-      </c>
-      <c r="O12">
-        <v>0.04987686684452822</v>
-      </c>
-      <c r="P12">
-        <v>0.04987686684452822</v>
-      </c>
-      <c r="Q12">
-        <v>0.001363008291666667</v>
-      </c>
-      <c r="R12">
-        <v>0.012267074625</v>
-      </c>
-      <c r="S12">
-        <v>0.0003775069852947388</v>
-      </c>
-      <c r="T12">
-        <v>0.0003775069852947388</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.03773033333333334</v>
-      </c>
-      <c r="H13">
-        <v>0.113191</v>
-      </c>
-      <c r="I13">
-        <v>0.007568779058866514</v>
-      </c>
-      <c r="J13">
-        <v>0.007568779058866514</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.6155076666666667</v>
-      </c>
-      <c r="N13">
-        <v>1.846523</v>
-      </c>
-      <c r="O13">
-        <v>0.8498157489860096</v>
-      </c>
-      <c r="P13">
-        <v>0.8498157489860095</v>
-      </c>
-      <c r="Q13">
-        <v>0.02322330943255556</v>
-      </c>
-      <c r="R13">
-        <v>0.209009784893</v>
-      </c>
-      <c r="S13">
-        <v>0.006432067644820272</v>
-      </c>
-      <c r="T13">
-        <v>0.006432067644820271</v>
+        <v>0.004115457166067636</v>
       </c>
     </row>
   </sheetData>
